--- a/Recherche/Elektronik/Elektronik.xlsx
+++ b/Recherche/Elektronik/Elektronik.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherlabisch/Desktop/Projekte/Mechanik und Mechatronik/CNC_v3_2/Recherche/Elektronik/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherlabisch/Documents/Projekte/DIY-CNC/Recherche/Elektronik/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>L298N</t>
   </si>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t>BTS7906B</t>
+  </si>
+  <si>
+    <t>http://www.ebay.de/itm/CNC-Shield-V3-0-UNO-R3-4pcs-A4988-Driver-GRBL-fur-Arduino-3D-Drucker-TE623-/381839921150?hash=item58e76ecffe:g:GqoAAOSw-3FZFDor</t>
+  </si>
+  <si>
+    <t>CNC Shield V3.0 + UNO R3 + 4pcs A4988 Driver /GRBL für Arduino 3D Drucker TE623</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>gekauft</t>
   </si>
 </sst>
 </file>
@@ -52,9 +67,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,19 +118,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -383,15 +408,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -404,11 +440,11 @@
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>6.9</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -421,11 +457,11 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>15.58</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -435,8 +471,32 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>7.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <f>10.88+2.49</f>
+        <v>13.370000000000001</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>42916</v>
       </c>
     </row>
   </sheetData>
